--- a/Método de identificación/HOLD OUT/holdOut_DM_binaria_balanceo2.xlsx
+++ b/Método de identificación/HOLD OUT/holdOut_DM_binaria_balanceo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\HOLD OUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,194 +740,194 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.72043010752688175</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.70454545454545447</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.72043010752688175</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.75609756097560976</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.65957446808510634</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.7210915818686402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.67204301075268813</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.63030303030303036</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.67204301075268813</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.73239436619718312</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.67333487511563372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.77027027027027029</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.81521739130434778</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.71080018501387598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.63855421686746994</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.56382978723404253</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.67865402405180386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.6966292134831461</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.73809523809523814</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.65957446808510634</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.76086956521739135</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.71022201665124884</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.63855421686746994</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.56382978723404253</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.67865402405180386</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.73255813953488369</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.67021276595744683</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.71010638297872342</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.63978494623655913</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.53146853146853146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.63978494623655913</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.40425531914893609</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.88043478260869568</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.64234505087881588</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>0.69354838709677424</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D6" s="1">
-        <v>0.67052023121387283</v>
+        <v>0.63953488372093026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
-        <v>0.69354838709677424</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G6" s="1">
-        <v>0.73417721518987344</v>
+        <v>0.70512820512820518</v>
       </c>
       <c r="H6" s="1">
-        <v>0.61702127659574468</v>
+        <v>0.58510638297872342</v>
       </c>
       <c r="I6" s="1">
-        <v>0.77173913043478259</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="1">
-        <v>0.69438020351526364</v>
+        <v>0.66755319148936165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.68279569892473113</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.61935483870967745</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.68279569892473113</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.78688524590163933</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.51063829787234039</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.85869565217391308</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.68466697502312668</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.6227544910179641</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.77173913043478259</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.66246530989824248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -964,418 +964,418 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>0.68279569892473113</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="1">
-        <v>0.6467065868263473</v>
+        <v>0.63095238095238093</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1">
-        <v>0.68279569892473113</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9" s="1">
-        <v>0.73972602739726023</v>
+        <v>0.71621621621621623</v>
       </c>
       <c r="H9" s="1">
-        <v>0.57446808510638303</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="I9" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="J9" s="1">
-        <v>0.68397317298797411</v>
+        <v>0.66778445883441262</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="D10" s="1">
-        <v>0.63414634146341464</v>
+        <v>0.58278145695364236</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G10" s="1">
-        <v>0.74285714285714288</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="H10" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.46808510638297868</v>
       </c>
       <c r="I10" s="1">
-        <v>0.80434782608695654</v>
+        <v>0.85869565217391308</v>
       </c>
       <c r="J10" s="1">
-        <v>0.6787696577243294</v>
+        <v>0.66339037927844591</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="D11" s="1">
-        <v>0.63414634146341464</v>
+        <v>0.64406779661016955</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G11" s="1">
-        <v>0.74285714285714288</v>
+        <v>0.68674698795180722</v>
       </c>
       <c r="H11" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="I11" s="1">
-        <v>0.80434782608695654</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="J11" s="1">
-        <v>0.6787696577243294</v>
+        <v>0.66188714153561523</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D12" s="1">
-        <v>0.63855421686746994</v>
+        <v>0.62650602409638556</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12" s="1">
-        <v>0.73611111111111116</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H12" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I12" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="J12" s="1">
-        <v>0.67865402405180386</v>
+        <v>0.66790009250693816</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="D13" s="1">
-        <v>0.63855421686746994</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="G13" s="1">
-        <v>0.73611111111111116</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H13" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I13" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="J13" s="1">
-        <v>0.67865402405180386</v>
+        <v>0.6787696577243294</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="D14" s="1">
-        <v>0.6470588235294118</v>
+        <v>0.62352941176470589</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="G14" s="1">
-        <v>0.72368421052631582</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="H14" s="1">
-        <v>0.58510638297872342</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="I14" s="1">
-        <v>0.77173913043478259</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="1">
-        <v>0.67842275670675312</v>
+        <v>0.65691489361702127</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="D15" s="1">
-        <v>0.6470588235294118</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="G15" s="1">
-        <v>0.72368421052631582</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="H15" s="1">
-        <v>0.58510638297872342</v>
+        <v>0.46808510638297868</v>
       </c>
       <c r="I15" s="1">
-        <v>0.77173913043478259</v>
+        <v>0.84782608695652173</v>
       </c>
       <c r="J15" s="1">
-        <v>0.67842275670675312</v>
+        <v>0.65795559666975023</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="D16" s="1">
-        <v>0.6629213483146067</v>
+        <v>0.64406779661016955</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G16" s="1">
-        <v>0.70238095238095233</v>
+        <v>0.68674698795180722</v>
       </c>
       <c r="H16" s="1">
-        <v>0.62765957446808507</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="I16" s="1">
-        <v>0.72826086956521741</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="J16" s="1">
-        <v>0.67796022201665129</v>
+        <v>0.66188714153561523</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.67204301075268813</v>
       </c>
       <c r="D17" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.63030303030303036</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
-        <v>0.67741935483870963</v>
+        <v>0.67204301075268813</v>
       </c>
       <c r="G17" s="1">
-        <v>0.69767441860465118</v>
+        <v>0.73239436619718312</v>
       </c>
       <c r="H17" s="1">
-        <v>0.63829787234042556</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I17" s="1">
-        <v>0.71739130434782605</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="J17" s="1">
-        <v>0.67784458834412586</v>
+        <v>0.67333487511563372</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>0.67204301075268813</v>
       </c>
       <c r="D18" s="1">
-        <v>0.60130718954248363</v>
+        <v>0.63030303030303036</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>0.67204301075268813</v>
       </c>
       <c r="G18" s="1">
-        <v>0.77966101694915257</v>
+        <v>0.73239436619718312</v>
       </c>
       <c r="H18" s="1">
-        <v>0.48936170212765961</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I18" s="1">
-        <v>0.85869565217391308</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="J18" s="1">
-        <v>0.67402867715078629</v>
+        <v>0.67333487511563372</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.67204301075268813</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.63030303030303036</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.67204301075268813</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.73239436619718312</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.55319148936170215</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.79347826086956519</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.67333487511563372</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.65591397849462363</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.65591397849462363</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.69736842105263153</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.56382978723404253</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.65691489361702127</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>0.67204301075268813</v>
       </c>
       <c r="D20" s="1">
-        <v>0.63030303030303036</v>
+        <v>0.60130718954248363</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1">
         <v>0.67204301075268813</v>
       </c>
       <c r="G20" s="1">
-        <v>0.73239436619718312</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="H20" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="I20" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.85869565217391308</v>
       </c>
       <c r="J20" s="1">
-        <v>0.67333487511563372</v>
+        <v>0.67402867715078629</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>0.67204301075268813</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="D21" s="1">
-        <v>0.63030303030303036</v>
+        <v>0.64406779661016955</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
-        <v>0.67204301075268813</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G21" s="1">
-        <v>0.73239436619718312</v>
+        <v>0.68674698795180722</v>
       </c>
       <c r="H21" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="I21" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="J21" s="1">
-        <v>0.67333487511563372</v>
+        <v>0.66188714153561523</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1444,714 +1444,714 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
-        <v>0.67204301075268813</v>
+        <v>0.65053763440860213</v>
       </c>
       <c r="D24" s="1">
-        <v>0.63030303030303036</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>0.67204301075268813</v>
+        <v>0.65053763440860213</v>
       </c>
       <c r="G24" s="1">
-        <v>0.73239436619718312</v>
+        <v>0.69333333333333336</v>
       </c>
       <c r="H24" s="1">
         <v>0.55319148936170215</v>
       </c>
       <c r="I24" s="1">
-        <v>0.79347826086956519</v>
+        <v>0.75</v>
       </c>
       <c r="J24" s="1">
-        <v>0.67333487511563372</v>
+        <v>0.65159574468085113</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.67204301075268813</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.63905325443786987</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.67204301075268813</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.57446808510638303</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.77173913043478259</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.67310360777058287</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.68279569892473113</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.68279569892473113</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.78688524590163933</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.85869565217391308</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.68466697502312668</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="D26" s="1">
-        <v>0.62650602409638556</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="G26" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="H26" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="I26" s="1">
-        <v>0.78260869565217395</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="J26" s="1">
-        <v>0.66790009250693816</v>
+        <v>0.66720629047178548</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67204301075268813</v>
       </c>
       <c r="D27" s="1">
-        <v>0.63095238095238093</v>
+        <v>0.63030303030303036</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67204301075268813</v>
       </c>
       <c r="G27" s="1">
-        <v>0.71621621621621623</v>
+        <v>0.73239436619718312</v>
       </c>
       <c r="H27" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I27" s="1">
-        <v>0.77173913043478259</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="J27" s="1">
-        <v>0.66778445883441262</v>
+        <v>0.67333487511563372</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="D28" s="1">
-        <v>0.63953488372093026</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G28" s="1">
-        <v>0.70512820512820518</v>
+        <v>0.72368421052631582</v>
       </c>
       <c r="H28" s="1">
         <v>0.58510638297872342</v>
       </c>
       <c r="I28" s="1">
-        <v>0.75</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="J28" s="1">
-        <v>0.66755319148936165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.67842275670675312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.651685393258427</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.69047619047619047</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.61702127659574468</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.71739130434782605</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.66720629047178548</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.6966292134831461</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.65957446808510634</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.76086956521739135</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.71022201665124884</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="D30" s="1">
-        <v>0.58278145695364236</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G30" s="1">
-        <v>0.77192982456140347</v>
+        <v>0.72368421052631582</v>
       </c>
       <c r="H30" s="1">
-        <v>0.46808510638297868</v>
+        <v>0.58510638297872342</v>
       </c>
       <c r="I30" s="1">
-        <v>0.85869565217391308</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="J30" s="1">
-        <v>0.66339037927844591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.67842275670675312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.6227544910179641</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.71232876712328763</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.55319148936170215</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.77173913043478259</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.66246530989824248</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.77027027027027029</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.81521739130434778</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.71080018501387598</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="D32" s="1">
-        <v>0.63583815028901736</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G32" s="1">
-        <v>0.69620253164556967</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="H32" s="1">
-        <v>0.58510638297872342</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="I32" s="1">
-        <v>0.73913043478260865</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="J32" s="1">
-        <v>0.66211840888066609</v>
+        <v>0.67784458834412586</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.69354838709677424</v>
       </c>
       <c r="D33" s="1">
-        <v>0.64406779661016955</v>
+        <v>0.67052023121387283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1">
-        <v>0.66129032258064513</v>
+        <v>0.69354838709677424</v>
       </c>
       <c r="G33" s="1">
-        <v>0.68674698795180722</v>
+        <v>0.73417721518987344</v>
       </c>
       <c r="H33" s="1">
-        <v>0.6063829787234043</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="I33" s="1">
-        <v>0.71739130434782605</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="J33" s="1">
-        <v>0.66188714153561523</v>
+        <v>0.69438020351526364</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.64406779661016955</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.68674698795180722</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.71739130434782605</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.66188714153561523</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.70454545454545447</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.65957446808510634</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.7210915818686402</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.64406779661016955</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.68674698795180722</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.71739130434782605</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.66188714153561523</v>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.73255813953488369</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.67021276595744683</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.71010638297872342</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4">
         <v>0.65591397849462363</v>
       </c>
-      <c r="D36" s="1">
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="D36" s="4">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4">
         <v>0.65591397849462363</v>
       </c>
-      <c r="G36" s="1">
-        <v>0.75862068965517238</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.46808510638297868</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.84782608695652173</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.65795559666975023</v>
+      <c r="G36" s="4">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.48936170212765961</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.65772432932469926</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.65591397849462363</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.58974358974358976</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.65591397849462363</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.48936170212765961</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.82608695652173914</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.65772432932469926</v>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.67204301075268813</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.63905325443786987</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.67204301075268813</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.77173913043478259</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.67310360777058287</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="D38" s="1">
-        <v>0.62352941176470589</v>
+        <v>0.67142857142857137</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="G38" s="1">
-        <v>0.69736842105263153</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="H38" s="1">
-        <v>0.56382978723404253</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>0.65691489361702127</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="D39" s="1">
-        <v>0.62352941176470589</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F39" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G39" s="1">
-        <v>0.69736842105263153</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="H39" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.62765957446808507</v>
       </c>
       <c r="I39" s="1">
-        <v>0.75</v>
+        <v>0.72826086956521741</v>
       </c>
       <c r="J39" s="1">
-        <v>0.65691489361702127</v>
+        <v>0.67796022201665129</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.68279569892473113</v>
       </c>
       <c r="D40" s="1">
-        <v>0.62352941176470589</v>
+        <v>0.6467065868263473</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F40" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.68279569892473113</v>
       </c>
       <c r="G40" s="1">
-        <v>0.69736842105263153</v>
+        <v>0.73972602739726023</v>
       </c>
       <c r="H40" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.57446808510638303</v>
       </c>
       <c r="I40" s="1">
-        <v>0.75</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="J40" s="1">
-        <v>0.65691489361702127</v>
+        <v>0.68397317298797411</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="D41" s="1">
-        <v>0.62352941176470589</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G41" s="1">
-        <v>0.69736842105263153</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H41" s="1">
-        <v>0.56382978723404253</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="I41" s="1">
-        <v>0.75</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="J41" s="1">
-        <v>0.65691489361702127</v>
+        <v>0.6787696577243294</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C42" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="D42" s="1">
-        <v>0.62352941176470589</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1">
-        <v>0.65591397849462363</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="G42" s="1">
-        <v>0.69736842105263153</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0.56382978723404253</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>0.65691489361702127</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>0.65591397849462363</v>
       </c>
-      <c r="D43" s="4">
-        <v>0.62790697674418605</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="D43" s="1">
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.65591397849462363</v>
       </c>
-      <c r="G43" s="4">
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0.57446808510638303</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.73913043478260865</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0.65679925994449584</v>
+      <c r="G43" s="1">
+        <v>0.69736842105263153</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.56382978723404253</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.65691489361702127</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
-        <v>0.65053763440860213</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="D44" s="1">
-        <v>0.61538461538461531</v>
+        <v>0.63583815028901736</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F44" s="1">
-        <v>0.65053763440860213</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G44" s="1">
-        <v>0.69333333333333336</v>
+        <v>0.69620253164556967</v>
       </c>
       <c r="H44" s="1">
-        <v>0.55319148936170215</v>
+        <v>0.58510638297872342</v>
       </c>
       <c r="I44" s="1">
-        <v>0.75</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="J44" s="1">
-        <v>0.65159574468085113</v>
+        <v>0.66211840888066609</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>0.63978494623655913</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="D45" s="1">
-        <v>0.53146853146853146</v>
+        <v>0.62352941176470589</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1">
-        <v>0.63978494623655913</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="G45" s="1">
-        <v>0.77551020408163263</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="H45" s="1">
-        <v>0.40425531914893609</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="I45" s="1">
-        <v>0.88043478260869568</v>
+        <v>0.75</v>
       </c>
       <c r="J45" s="1">
-        <v>0.64234505087881588</v>
+        <v>0.65691489361702127</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
         <v>0.5053763440860215</v>
@@ -2180,71 +2180,71 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
-        <v>0.5053763440860215</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="D47" s="1">
-        <v>0.67142857142857137</v>
+        <v>0.62352941176470589</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F47" s="1">
-        <v>0.5053763440860215</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="G47" s="1">
-        <v>0.5053763440860215</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J47" s="1">
-        <v>0.5</v>
+        <v>0.65691489361702127</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.4946236559139785</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.4946236559139785</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.5</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.65591397849462363</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.65591397849462363</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.65679925994449584</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J48">
-    <sortCondition descending="1" ref="J1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
